--- a/IPCA - 12 meses (%a.m.).xlsx
+++ b/IPCA - 12 meses (%a.m.).xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renat\OneDrive\Área de Trabalho\ativid2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA4F90-A43E-4FDC-8B13-5E60710A5446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19650" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Data</t>
+    <t>Data</t>
   </si>
   <si>
-    <t xml:space="preserve">IPCA - 12 meses (%a.m.)</t>
+    <t>IPCA - 12 meses (%a.m.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,12 +68,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,14 +364,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230:XFD230"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -363,1840 +381,1835 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>37622</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>14.47</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>37653</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>15.85</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>37681</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>16.57</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>37712</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>16.77</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>37742</v>
       </c>
-      <c r="B6" t="n">
-        <v>17.24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>37773</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>16.57</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>37803</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>15.43</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>37834</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>15.07</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>37865</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>15.14</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>37895</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>13.98</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>37926</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11.02</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>37956</v>
       </c>
-      <c r="B13" t="n">
-        <v>9.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>37987</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>7.71</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>38018</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>6.69</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>38047</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>5.89</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>38078</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5.26</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>38108</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>5.15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>38139</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>6.06</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>38169</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>6.81</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>38200</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>7.18</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>38231</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>6.7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>38261</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6.86</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>38292</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.24</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>38322</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>7.6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>38353</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>7.41</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>38384</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>7.39</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>38412</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>7.54</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>38443</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>8.07</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>38473</v>
       </c>
-      <c r="B30" t="n">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="B30">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>38504</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>7.27</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>38534</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>6.57</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>38565</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>6.02</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>38596</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>6.04</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>38626</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>6.36</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>38657</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>6.22</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>38687</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>5.69</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>38718</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>5.7</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38749</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>5.51</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38777</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>5.32</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>38808</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>4.63</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>38838</v>
       </c>
-      <c r="B42" t="n">
-        <v>4.23</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="B42">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>38869</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>4.03</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>38899</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3.97</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>38930</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>3.84</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>38961</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3.7</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>38991</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>3.26</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>39022</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>3.02</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>39052</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>3.14</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>39083</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2.99</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>39114</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3.02</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>39142</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>2.96</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>39173</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>3</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>39203</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>3.18</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>39234</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>3.69</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>39264</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>3.74</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>39295</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>4.18</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>39326</v>
       </c>
-      <c r="B58" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="B58">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>39356</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>4.12</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>39387</v>
       </c>
-      <c r="B60" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="B60">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>39417</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>4.46</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>39448</v>
       </c>
-      <c r="B62" t="n">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="B62">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>39479</v>
       </c>
-      <c r="B63" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="B63">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>39508</v>
       </c>
-      <c r="B64" t="n">
-        <v>4.73</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="B64">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>39539</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>5.04</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>39569</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>5.58</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>39600</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>6.06</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>39630</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>6.37</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>39661</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>6.17</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>39692</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>6.25</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>39722</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>6.41</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>39753</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>6.39</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>39783</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>5.9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>39814</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>5.84</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>39845</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>5.9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>39873</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>5.61</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>39904</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>5.53</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>39934</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>5.2</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>39965</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>4.8</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>39995</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>4.5</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>40026</v>
       </c>
-      <c r="B81" t="n">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="B81">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>40057</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>4.34</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>40087</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>4.17</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>40118</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>4.22</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>40148</v>
       </c>
-      <c r="B85" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="B85">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>40179</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>4.59</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>40210</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>4.83</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>40238</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>5.17</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>40269</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>5.26</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>40299</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>5.22</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>40330</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>4.84</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>40360</v>
       </c>
-      <c r="B92" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="B92">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>40391</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>4.49</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>40422</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>4.7</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>40452</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>5.2</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>40483</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>5.63</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>40513</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>5.91</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>40544</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>5.99</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>40575</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>6.01</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>40603</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>6.3</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>40634</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>6.51</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>40664</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>6.55</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>40695</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>6.71</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>40725</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>6.87</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>40756</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>7.23</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>40787</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>7.31</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>40817</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>6.97</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>40848</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>6.64</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>40878</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>6.5</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>40909</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>6.22</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>40940</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>5.85</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>40969</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>5.24</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>41000</v>
       </c>
-      <c r="B113" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="B113">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>41030</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>4.99</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>41061</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>4.92</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>41091</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>5.2</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>41122</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>5.24</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>41153</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>5.28</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>41183</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>5.45</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>41214</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>5.53</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>41244</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>5.84</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>41275</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>6.15</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>41306</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>6.31</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>41334</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>6.59</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>41365</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>6.49</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>41395</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>6.5</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>41426</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>6.7</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>41456</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>6.27</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>41487</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>6.09</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>41518</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>5.86</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>41548</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>5.84</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>41579</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>5.77</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>41609</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>5.91</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>41640</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>5.59</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>41671</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>5.68</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>41699</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>6.15</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>41730</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>6.28</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>41760</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>6.37</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>41791</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>6.52</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>41821</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>6.5</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>41852</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>6.51</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>41883</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>6.75</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>41913</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>6.59</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>41944</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>6.56</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>41974</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>6.41</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>42005</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>7.14</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>42036</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>7.7</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>42064</v>
       </c>
-      <c r="B148" t="n">
-        <v>8.13</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="B148">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>42095</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>8.17</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>42125</v>
       </c>
-      <c r="B150" t="n">
-        <v>8.47</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="B150">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>42156</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>8.89</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>42186</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>9.56</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>42217</v>
       </c>
-      <c r="B153" t="n">
-        <v>9.53</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="B153">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>42248</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>9.49</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>42278</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>9.93</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>42309</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>10.48</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>42339</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>10.67</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>42370</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>10.71</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>42401</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>10.36</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>42430</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>9.39</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>42461</v>
       </c>
-      <c r="B161" t="n">
-        <v>9.28</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="B161">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>42491</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>9.32</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>42522</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>8.84</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>42552</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>8.74</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>42583</v>
       </c>
-      <c r="B165" t="n">
-        <v>8.97</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="B165">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>42614</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>8.48</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>42644</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>7.87</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>42675</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>6.99</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>42705</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>6.29</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>42736</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>5.35</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>42767</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>4.76</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>42795</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>4.57</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>42826</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>4.08</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>42856</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>3.6</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>42887</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>3</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>42917</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>2.71</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>42948</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>2.46</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>42979</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>2.54</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>43009</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>2.7</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>43040</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>2.8</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>43070</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>2.95</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>43101</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>2.86</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>43132</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>2.84</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>43160</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>2.68</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>43191</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>2.76</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>43221</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>2.86</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>43252</v>
       </c>
-      <c r="B187" t="n">
-        <v>4.39</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="B187">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>43282</v>
       </c>
-      <c r="B188" t="n">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="B188">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>43313</v>
       </c>
-      <c r="B189" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="B189">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>43344</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>4.53</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>43374</v>
       </c>
-      <c r="B191" t="n">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="B191">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>43405</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>4.05</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>43435</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>3.75</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>43466</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>3.78</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>43497</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>3.89</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>43525</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>4.58</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>43556</v>
       </c>
-      <c r="B197" t="n">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="B197">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>43586</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>4.66</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>43617</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>3.37</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>43647</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>3.22</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>43678</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>3.43</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>43709</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>2.89</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>43739</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>2.54</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>43770</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>3.27</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>43800</v>
       </c>
-      <c r="B205" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="B205">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>43831</v>
       </c>
-      <c r="B206" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="B206">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>43862</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>4.01</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>43891</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>3.3</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>43922</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>2.4</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>43952</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>1.88</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>43983</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>2.13</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>44013</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>2.31</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>44044</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>2.44</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>44075</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>3.14</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>44105</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>3.92</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>44136</v>
       </c>
-      <c r="B216" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="B216">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>44166</v>
       </c>
-      <c r="B217" t="n">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="B217">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>44197</v>
       </c>
-      <c r="B218" t="n">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="B218">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>44228</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>5.2</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>44256</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>6.1</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>44287</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>6.76</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>44317</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>8.06</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>44348</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>8.35</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>44378</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>8.99</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>44409</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>9.68</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>44440</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>10.25</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>44470</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>10.67</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>44501</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>10.74</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>44531</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>10.06</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B230" t="n">
-        <v>10.38</v>
-      </c>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>